--- a/mapping/Combined Cleaned Vocabulary_CAO.xlsx
+++ b/mapping/Combined Cleaned Vocabulary_CAO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="204">
   <si>
     <t>Combined Cleaned Vocabulary_IRI</t>
   </si>
@@ -601,15 +601,9 @@
     <t>["A 3-D extent quality inhering in a bearer by virtue of the bearer's amount of 3-dimensional space it occupies."]</t>
   </si>
   <si>
-    <t>["A physical quality which inheres in a bearer by virtue of some influence is exerted by the bearer's mass per unit size."]</t>
-  </si>
-  <si>
     <t>['PATO_0000125']</t>
   </si>
   <si>
-    <t>['A physical quality of the thermal energy of a system. [PATO]']</t>
-  </si>
-  <si>
     <t>['B is a site means: b is a three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof. [BFO]']</t>
   </si>
   <si>
@@ -629,9 +623,6 @@
   </si>
   <si>
     <t>['Reference units from the Units of Measure Ontology (UO) unless not defined in that ontology']</t>
-  </si>
-  <si>
-    <t>['Electrical conductivity is the quality inhered in a conductor that is the reciprocal of resistivity. [IUPAC]']</t>
   </si>
   <si>
     <t>["Position is a  spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity. [PATO]"]</t>
@@ -1345,7 +1336,7 @@
         <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1365,7 +1356,7 @@
         <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1405,7 +1396,7 @@
         <v>148</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1465,7 +1456,7 @@
         <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1645,7 +1636,7 @@
         <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1885,7 +1876,7 @@
         <v>172</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1925,7 +1916,7 @@
         <v>174</v>
       </c>
       <c r="F46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1965,7 +1956,7 @@
         <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1985,7 +1976,7 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2065,7 +2056,7 @@
         <v>180</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2165,7 +2156,7 @@
         <v>184</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2225,7 +2216,7 @@
         <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2245,7 +2236,7 @@
         <v>145</v>
       </c>
       <c r="F62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2325,7 +2316,7 @@
         <v>190</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:6">
